--- a/data_year/zb/固定资产投资和房地产/房地产开发企业资金来源.xlsx
+++ b/data_year/zb/固定资产投资和房地产/房地产开发企业资金来源.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,669 +483,419 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9523.7675</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4153.5294</v>
+      </c>
       <c r="D2" t="n">
-        <v>2819.2905</v>
+        <v>32952.4474</v>
       </c>
       <c r="E2" t="n">
-        <v>168.7046</v>
+        <v>790.6809</v>
       </c>
       <c r="F2" t="n">
-        <v>1385.0756</v>
+        <v>12563.7002</v>
       </c>
       <c r="G2" t="n">
-        <v>134.8026</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>673.4475</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19275.1505</v>
+      </c>
       <c r="I2" t="n">
-        <v>5997.6309</v>
+        <v>72944.04270000001</v>
       </c>
       <c r="J2" t="n">
-        <v>1614.2122</v>
+        <v>26637.2142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8678.3719</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5693.5252</v>
+      </c>
       <c r="D3" t="n">
-        <v>3670.5562</v>
+        <v>36842.2158</v>
       </c>
       <c r="E3" t="n">
-        <v>135.7044</v>
+        <v>785.1457</v>
       </c>
       <c r="F3" t="n">
-        <v>1692.1968</v>
+        <v>13056.7965</v>
       </c>
       <c r="G3" t="n">
-        <v>106.115</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>689.5413</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22470.3187</v>
+      </c>
       <c r="I3" t="n">
-        <v>7696.3877</v>
+        <v>85688.7322</v>
       </c>
       <c r="J3" t="n">
-        <v>2183.9587</v>
+        <v>35004.5742</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10523.7848</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5192.5693</v>
+      </c>
       <c r="D4" t="n">
-        <v>4619.8961</v>
+        <v>42274.3754</v>
       </c>
       <c r="E4" t="n">
-        <v>157.2284</v>
+        <v>402.0851</v>
       </c>
       <c r="F4" t="n">
-        <v>2220.3357</v>
+        <v>14778.3861</v>
       </c>
       <c r="G4" t="n">
-        <v>124.1285</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>358.5244</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26558.0213</v>
+      </c>
       <c r="I4" t="n">
-        <v>9749.953600000001</v>
+        <v>96536.8076</v>
       </c>
       <c r="J4" t="n">
-        <v>2738.4451</v>
+        <v>39081.961</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14033.2618</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5958.4702</v>
+      </c>
       <c r="D5" t="n">
-        <v>6106.0503</v>
+        <v>54490.6992</v>
       </c>
       <c r="E5" t="n">
-        <v>170.004</v>
+        <v>534.1655</v>
       </c>
       <c r="F5" t="n">
-        <v>3138.2699</v>
+        <v>19672.66</v>
       </c>
       <c r="G5" t="n">
-        <v>116.2667</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>467.1196</v>
+      </c>
+      <c r="H5" t="n">
+        <v>34498.9672</v>
+      </c>
       <c r="I5" t="n">
-        <v>13196.9224</v>
+        <v>122122.4714</v>
       </c>
       <c r="J5" t="n">
-        <v>3770.6891</v>
+        <v>47424.9467</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>13665.4525</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5786.8508</v>
+      </c>
       <c r="D6" t="n">
-        <v>8562.5867</v>
+        <v>49689.8091</v>
       </c>
       <c r="E6" t="n">
-        <v>228.2001</v>
+        <v>639.2613</v>
       </c>
       <c r="F6" t="n">
-        <v>3158.4126</v>
+        <v>21242.6108</v>
       </c>
       <c r="G6" t="n">
-        <v>142.5587</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>598.9082</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30237.5058</v>
+      </c>
       <c r="I6" t="n">
-        <v>17168.7669</v>
+        <v>121991.4843</v>
       </c>
       <c r="J6" t="n">
-        <v>5207.5627</v>
+        <v>50419.8031</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1341.1787</v>
+        <v>16661.6466</v>
       </c>
       <c r="C7" t="n">
-        <v>1926.1485</v>
+        <v>6472.6063</v>
       </c>
       <c r="D7" t="n">
-        <v>10221.5576</v>
+        <v>55654.5974</v>
       </c>
       <c r="E7" t="n">
-        <v>257.8111</v>
+        <v>296.5297</v>
       </c>
       <c r="F7" t="n">
-        <v>3918.0778</v>
+        <v>20214.3822</v>
       </c>
       <c r="G7" t="n">
-        <v>171.4093</v>
+        <v>286.079</v>
       </c>
       <c r="H7" t="n">
-        <v>6954.2304</v>
+        <v>32520.3445</v>
       </c>
       <c r="I7" t="n">
-        <v>21397.8389</v>
+        <v>125203.0643</v>
       </c>
       <c r="J7" t="n">
-        <v>7000.3924</v>
+        <v>49037.555</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2588.3771</v>
+        <v>24402.9369</v>
       </c>
       <c r="C8" t="n">
-        <v>2000.3008</v>
+        <v>7073.2888</v>
       </c>
       <c r="D8" t="n">
-        <v>12781.3327</v>
+        <v>73428.3662</v>
       </c>
       <c r="E8" t="n">
-        <v>400.1541</v>
+        <v>140.4372</v>
       </c>
       <c r="F8" t="n">
-        <v>5356.9795</v>
+        <v>21512.398</v>
       </c>
       <c r="G8" t="n">
-        <v>303.0476</v>
+        <v>132.5314</v>
       </c>
       <c r="H8" t="n">
-        <v>8192.6548</v>
+        <v>41952.1405</v>
       </c>
       <c r="I8" t="n">
-        <v>27135.5516</v>
+        <v>144214.0507</v>
       </c>
       <c r="J8" t="n">
-        <v>8597.085300000001</v>
+        <v>49132.8493</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5080.4291</v>
+        <v>23906.308</v>
       </c>
       <c r="C9" t="n">
-        <v>2305.118</v>
-      </c>
-      <c r="D9" t="n">
-        <v>18048.7514</v>
-      </c>
+        <v>7170.5784</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>641.0425</v>
+        <v>168.1881</v>
       </c>
       <c r="F9" t="n">
-        <v>7015.6355</v>
-      </c>
-      <c r="G9" t="n">
-        <v>485.3862</v>
-      </c>
+        <v>25241.761</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>10663.2043</v>
+        <v>48693.5688</v>
       </c>
       <c r="I9" t="n">
-        <v>37477.961</v>
+        <v>156052.6193</v>
       </c>
       <c r="J9" t="n">
-        <v>11772.5316</v>
+        <v>50872.215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3886.0408</v>
+        <v>23643.0573</v>
       </c>
       <c r="C10" t="n">
-        <v>2330.6292</v>
-      </c>
-      <c r="D10" t="n">
-        <v>15973.3517</v>
-      </c>
+        <v>7014.9395</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>728.2172</v>
+        <v>114.0244</v>
       </c>
       <c r="F10" t="n">
-        <v>7605.6925</v>
-      </c>
-      <c r="G10" t="n">
-        <v>634.994</v>
-      </c>
+        <v>24132.1354</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>9756.681699999999</v>
+        <v>55748.1566</v>
       </c>
       <c r="I10" t="n">
-        <v>39619.3602</v>
+        <v>166407.1062</v>
       </c>
       <c r="J10" t="n">
-        <v>15312.0988</v>
+        <v>55754.793</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8561.65</v>
+        <v>27281.0306</v>
       </c>
       <c r="C11" t="n">
-        <v>3226.8773</v>
-      </c>
-      <c r="D11" t="n">
-        <v>28006.0123</v>
-      </c>
+        <v>6406.3439</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>479.394</v>
+        <v>175.7231</v>
       </c>
       <c r="F11" t="n">
-        <v>11364.5111</v>
-      </c>
-      <c r="G11" t="n">
-        <v>403.3203</v>
-      </c>
+        <v>25228.7708</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>16217.485</v>
+        <v>61358.8843</v>
       </c>
       <c r="I11" t="n">
-        <v>57799.0365</v>
+        <v>178608.5949</v>
       </c>
       <c r="J11" t="n">
-        <v>17949.1191</v>
+        <v>58157.8422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9523.7675</v>
+        <v>29975.8123</v>
       </c>
       <c r="C12" t="n">
-        <v>4153.5294</v>
-      </c>
-      <c r="D12" t="n">
-        <v>32952.4474</v>
-      </c>
+        <v>6347.6157</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>790.6809</v>
+        <v>192.0032</v>
       </c>
       <c r="F12" t="n">
-        <v>12563.7002</v>
-      </c>
-      <c r="G12" t="n">
-        <v>673.4475</v>
-      </c>
+        <v>26675.9426</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>19275.1505</v>
+        <v>66546.83229999999</v>
       </c>
       <c r="I12" t="n">
-        <v>72944.04270000001</v>
+        <v>193114.8545</v>
       </c>
       <c r="J12" t="n">
-        <v>26637.2142</v>
+        <v>63376.6484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8678.3719</v>
+        <v>32388.1884</v>
       </c>
       <c r="C13" t="n">
-        <v>5693.5252</v>
-      </c>
-      <c r="D13" t="n">
-        <v>36842.2158</v>
-      </c>
+        <v>5967.5281</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>785.1457</v>
+        <v>107.3568</v>
       </c>
       <c r="F13" t="n">
-        <v>13056.7965</v>
-      </c>
-      <c r="G13" t="n">
-        <v>689.5413</v>
-      </c>
+        <v>23295.7908</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>22470.3187</v>
+        <v>73945.6547</v>
       </c>
       <c r="I13" t="n">
-        <v>85688.7322</v>
+        <v>201132.2097</v>
       </c>
       <c r="J13" t="n">
-        <v>35004.5742</v>
+        <v>65427.6909</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10523.7848</v>
+        <v>23815.026</v>
       </c>
       <c r="C14" t="n">
-        <v>5192.5693</v>
-      </c>
-      <c r="D14" t="n">
-        <v>42274.3754</v>
-      </c>
+        <v>5469.6399</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>402.0851</v>
+        <v>77.9739</v>
       </c>
       <c r="F14" t="n">
-        <v>14778.3861</v>
-      </c>
-      <c r="G14" t="n">
-        <v>358.5244</v>
-      </c>
+        <v>17387.5627</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>26558.0213</v>
+        <v>49288.8083</v>
       </c>
       <c r="I14" t="n">
-        <v>96536.8076</v>
+        <v>148979.2098</v>
       </c>
       <c r="J14" t="n">
-        <v>39081.961</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14033.2618</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5958.4702</v>
-      </c>
-      <c r="D15" t="n">
-        <v>54490.6992</v>
-      </c>
-      <c r="E15" t="n">
-        <v>534.1655</v>
-      </c>
-      <c r="F15" t="n">
-        <v>19672.66</v>
-      </c>
-      <c r="G15" t="n">
-        <v>467.1196</v>
-      </c>
-      <c r="H15" t="n">
-        <v>34498.9672</v>
-      </c>
-      <c r="I15" t="n">
-        <v>122122.4714</v>
-      </c>
-      <c r="J15" t="n">
-        <v>47424.9467</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>13665.4525</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5786.8508</v>
-      </c>
-      <c r="D16" t="n">
-        <v>49689.8091</v>
-      </c>
-      <c r="E16" t="n">
-        <v>639.2613</v>
-      </c>
-      <c r="F16" t="n">
-        <v>21242.6108</v>
-      </c>
-      <c r="G16" t="n">
-        <v>598.9082</v>
-      </c>
-      <c r="H16" t="n">
-        <v>30237.5058</v>
-      </c>
-      <c r="I16" t="n">
-        <v>121991.4843</v>
-      </c>
-      <c r="J16" t="n">
-        <v>50419.8031</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16661.6466</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6472.6063</v>
-      </c>
-      <c r="D17" t="n">
-        <v>55654.5974</v>
-      </c>
-      <c r="E17" t="n">
-        <v>296.5297</v>
-      </c>
-      <c r="F17" t="n">
-        <v>20214.3822</v>
-      </c>
-      <c r="G17" t="n">
-        <v>286.079</v>
-      </c>
-      <c r="H17" t="n">
-        <v>32520.3445</v>
-      </c>
-      <c r="I17" t="n">
-        <v>125203.0643</v>
-      </c>
-      <c r="J17" t="n">
-        <v>49037.555</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>24402.9369</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7073.2888</v>
-      </c>
-      <c r="D18" t="n">
-        <v>73428.3662</v>
-      </c>
-      <c r="E18" t="n">
-        <v>140.4372</v>
-      </c>
-      <c r="F18" t="n">
-        <v>21512.398</v>
-      </c>
-      <c r="G18" t="n">
-        <v>132.5314</v>
-      </c>
-      <c r="H18" t="n">
-        <v>41952.1405</v>
-      </c>
-      <c r="I18" t="n">
-        <v>144214.0507</v>
-      </c>
-      <c r="J18" t="n">
-        <v>49132.8493</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>23906.308</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7170.5784</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>168.1881</v>
-      </c>
-      <c r="F19" t="n">
-        <v>25241.761</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>48693.5688</v>
-      </c>
-      <c r="I19" t="n">
-        <v>156052.6193</v>
-      </c>
-      <c r="J19" t="n">
-        <v>50872.215</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>23643.0573</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7014.9395</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>114.0244</v>
-      </c>
-      <c r="F20" t="n">
-        <v>24132.1354</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>55748.1566</v>
-      </c>
-      <c r="I20" t="n">
-        <v>166407.1062</v>
-      </c>
-      <c r="J20" t="n">
-        <v>55754.793</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>27281.0306</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6406.3439</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>175.7231</v>
-      </c>
-      <c r="F21" t="n">
-        <v>25228.7708</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>61358.8843</v>
-      </c>
-      <c r="I21" t="n">
-        <v>178608.5949</v>
-      </c>
-      <c r="J21" t="n">
-        <v>58157.8422</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>29975.8123</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6347.6157</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>192.0032</v>
-      </c>
-      <c r="F22" t="n">
-        <v>26675.9426</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>66546.83229999999</v>
-      </c>
-      <c r="I22" t="n">
-        <v>193114.8545</v>
-      </c>
-      <c r="J22" t="n">
-        <v>63376.6484</v>
+        <v>52940.199</v>
       </c>
     </row>
   </sheetData>
